--- a/Data/New_Data.xlsx
+++ b/Data/New_Data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vntdoan\DA2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/DA2019/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7032"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
   </si>
@@ -50,17 +56,92 @@
     <t>Máy đẹp quá</t>
   </si>
   <si>
-    <t>màn hình hiển thị kém</t>
-  </si>
-  <si>
     <t>máy dùng tạm được, không có gì để chê</t>
+  </si>
+  <si>
+    <t>Giá quá cao mà sử dụng thì không có gì nổi bật cả, những ai hay chơi game thì ko nên mua bởi vì pin quá kém.</t>
+  </si>
+  <si>
+    <t>Máy mua được hơn 1 tháng tại thegioididong hiện tại không nhận được cuộc gọi. Không khởi động lại máy được.không thao tác cuộc gọi được.ngoài ra dùng bình thường mai mang xuống thegioididong xem sao về trường hợp này.thấy không tin app nữa rồi</t>
+  </si>
+  <si>
+    <t>Ip X ko có phím home tròn. Làm mất phong cách ip quen thuộc. Của các đời trước. Nhớ ko nhầm thì từ bản 3GS thì phải.</t>
+  </si>
+  <si>
+    <t>Máy thì ngon, mình dùng từ 5s đến 8 mỗi tội chẳng biết nó hỏng lúc nào, mỗi lần cập nhật là nơm nớp. Đợt vừa r lên ios 12 xong thành cục gạch con 5s với 6. Chả biết bao giờ tới con này.</t>
+  </si>
+  <si>
+    <t>Mình mới mua iPhone X phiên bản 256 gb được nửa năm, thấy cũng được, mọi thứ đều ổn, máy chơi game mượt, nhưng có điều camera chụp ko đc tốt</t>
+  </si>
+  <si>
+    <t>Đặt hàng từ lúc mới ra , thấy chất lượng ok , xài mượt , màn hình tràn viền cầm nhìn sang trọng , nhược điểm thỳ cạnh viền thép dể bị sước dăm khi xài ốp, nhìu ứng dụng vẫn chưa full màn hình cho em nó.</t>
+  </si>
+  <si>
+    <t>Cấu hình rất mượt. Nhưng pin rất kém thử download liên quân mobile về vào chưa được 5p ngốn 4-5% pin</t>
+  </si>
+  <si>
+    <t>em mua ngày 9/2 về dùng hơn tuần. đang dùng pin 100% tự nhiên đen màn hình bật không lên bị lỗi. mang ra TGDD bảo hành thì họ bảo 15 ngày mới có thể đổi máy vì gửi lên hãng @@ iphoneX giờ lỗi quá. e tín đồ apple lâu rồi 1 thời gian chuyển sang galaxy s8+ thấy dùng đã giờ qua X chán quá thật sự luôn ạ</t>
+  </si>
+  <si>
+    <t>Thiết kế rất đẹp, màn hình rộng và cân đối Rất mượt mà, chụp hình chế độ Chân dung cực kỳ đẹp, pin đủ dùng trong ngày tới tối muộn mới cần sạc lại. Rất thích sản phẩm khi dùng dưới mưa, Face ID tự mở cho dù trời mưa lớn.</t>
+  </si>
+  <si>
+    <t>Mua hơn 1 năm nay, chơi game nặng thì máy hơi nóng( thua 8plus khoản game) còn lại mọi thứ hoàn hảo</t>
+  </si>
+  <si>
+    <t>Mình mua máy dc 1 tuần, hiệu năng, hình ảnh mọi thứ đều ok, chỉ có điều mặt sau và cạnh viền k khớp nhau, có khe hở (từ lúc mua tới giờ chưa chịu bất cứ va chạm nào) bụi vào nhiều lắm. Bên TGDD giải quyết vấn đề này giúp mình với nhé. Thân!</t>
+  </si>
+  <si>
+    <t>Máy tốt về mọi mặt nhưng các bạn thường chơi game hơi nặng xíu k nên mua máy này vì chơi game khoảng 20p máy sẽ rất rất nóng</t>
+  </si>
+  <si>
+    <t>sản phẩm thiết kế đẹp tinh tế, cấu hình mạnh và rất nhiều ứng dụng rất hữu ích, Pin sử dụng tốt, nhìn chung sản phẩm rất tuyệt vời</t>
+  </si>
+  <si>
+    <t>Iphone X đúng 1 sản phẩm nổi bật và đột phá từ trước đến nay, màn hình rất đẹp và viền rất mỏng là ấn tượng mà tôi thích nhất, Camera cũng thuộc dạng tốt nhất trên thị trường hiện nay.</t>
+  </si>
+  <si>
+    <t>Máy chạy OK rất mượt,cảm thấy hài lòng nhé.rất đáng đồng tiền,tuy nhiên NV tư vấn còn chưa chính xác</t>
+  </si>
+  <si>
+    <t>Máy rất đẹp, nhỏ gọn, chạy mượt. Mọi thứ đều ổn chỉ là cam hơi chán chất lượng chỉ ở mức trung bình. Vẫn phải dùng cái Sony z5 P để đáp ứng nhu cầu chụp ảnh.</t>
+  </si>
+  <si>
+    <t>Sản phẩm dùng rất ổn định, pin khá ổn, chụp ảnh đẹp và chân thực. Đã mua rất nhiều sản phẩm bên dmx đc nhân viên tiếp đón rất chu đáo nhiệt tình. Rất hài lòng</t>
+  </si>
+  <si>
+    <t>Mới rinh về trải nghiệm. Thời lượng pin được chứ chưa được ấn tượng lắm “ do nhu cầu pin mình cao”. Nói chung tuyệt vời mặc dù giá hơi chát tí</t>
+  </si>
+  <si>
+    <t>Mọi thứ ổn định Hơi thất vọng về pin quá . Mình dùng chỉ được 5h là fai sạc quá thất vọng . Không biết do hệ điều hành hay sao nữa . Hiện tại mình đang ở bản 11.3</t>
+  </si>
+  <si>
+    <t>Đang dùng iPhone x 256gb thấy rất sướng, rất là mượt, không xảy ra tình trạng giựt lag, quá hoàn hảo,nhiều tính nắng tuyệt vời, chỉ 1 điều chưa hài lòng là mau hết pin quá do faceid quét liên tục, nên dùng chỉ được </t>
+  </si>
+  <si>
+    <t>Máy dùng phải gọi là quá mượt, cầm vừa tay nhưng lại rất dễ rơi do máy quá trơn, face id thì ko được tốt lắm nhưng ko có chuyện đeo khẩu trang mà vẫn mở khóa đc cá nhân mình thì thich touch id hơn. Muốn xem % thì hơi bất tiện do phải kéo thanh công cụ thì mới xem đc. Màn hình đẹp hơn ss nhưng cực ghét cái tai thỏ do ko phải ứng dụng nào cx đc full màn hình. Nv tgdd nhiệt tình, vui vẻ, chu đáo</t>
+  </si>
+  <si>
+    <t>thiết kế gọn nhẹ, cầm vừa tay màn hình trải nghiệm tốt full màn hình máy nhỏ nhưng cảm giác vẫn thấy coi thích Pin hơi ít do tính chất công việc sạc hơi nhiều</t>
+  </si>
+  <si>
+    <t xml:space="preserve">màn hình hiển thị kém, không đáng tiền </t>
+  </si>
+  <si>
+    <t>Mua từ lúc mới ra thường thì rất lâu mới giảm giá. Dể bị trày 4 cạnh viền face id ok. Vẻ sang chảnh. Ngoài ra tính năng khác không nổi trội nhiều so với đời trước.</t>
+  </si>
+  <si>
+    <t>Máy tụt pin nhanh</t>
+  </si>
+  <si>
+    <t>Máy thiết kế ổn, cầm chắc tay, nhỏ gọn đẹp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,10 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="13"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,82 +465,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/New_Data.xlsx
+++ b/Data/New_Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
   </si>
@@ -135,13 +135,59 @@
   </si>
   <si>
     <t>Máy thiết kế ổn, cầm chắc tay, nhỏ gọn đẹp</t>
+  </si>
+  <si>
+    <t>Sản phẩm chất lượng ok. Nhưng thời gian giao hàng quá lâu, khi đến hạn giao hàng vẫn không thấy, gọi lên hotline thì được trả lời hàng vẫn nằm kho HCM và chờ chuyển ra trong khi order gần 1 tuần rồi. Không chốt thời gian cụ thể giao hàng mà hẹn trong khoảng 2-3 ngày tới. Cực kì bực mình vì cách giao hàng vì cứ phải ngồi 1 chỗ chờ đt để nhận hàng trong mấy ngày liên tục.</t>
+  </si>
+  <si>
+    <t>Nhận sản phẩm sau 2h là trưa thứ 6, máy nguyên seal chưa active nhưng lỗi không lên nguồn cắm sạc chỉ nháy logo apple rồi tắt phụt, thử mọi cách hard reset cắm vào macbook không lên, góc trái màn hình bị kênh và hở lên 0.5 mm so với viền.
+Vì cần gấp để tặng người thân đi ra sân bay nên gọi ngay cho Tiki, nhận được câu trả lời là sẽ liên lạc sớm nhất có thể, mất kiên nhẫn nên gọi lại làm căng thì mới nói là không thể đổi trả luôn mà phải đợi qua ngày. Trong khi thứ 7 chủ nhật không làm việc và không qua, nói đầu tuần sau mới có người qua lấy máy. Rồi phải đợi kiểm tra máy vậy thì đến bao giờ mới nhận được máy đổi???
+Tại sao giao hàng 2h được mà hậu mãi không làm gấp được mà phải cả tuần hay bán được là xong trách nhiệm?
+Giải quyết: phải tự đem thẳng máy lên kho tiki ở Lĩnh Nam trả nhân viên, yêu cầu hoàn tiền. Mong sẽ được hoàn tiền sớm.
+Lần này khá thất vọng khi mua hàng, trước đó mua 1 tai nghe iphone 500.000 cam kết chính hãng mà mic rè tậm tịt, vẫn đang chờ đổi trả.
+Mọi người nên cân nhắc xác suất nhận máy hỏng là có và khi đó sẽ vừa mất thời gian công sức và rước bực vào người. Biết vậy ra cửa hàng bán lẻ để test máy, đúng là rẻ hơn đc vài trăm mà khổ.</t>
+  </si>
+  <si>
+    <t>Tôi nhận được máy - cũng hài lòng khi mới nhận. 
+nhưng khi check kỹ thì thấy máy này đã bị reset 1 lần vào thời gian cả gần nữa năm trước khi tôi nhận máy. 
+Cảm thấy không còn chút tin tưởng.</t>
+  </si>
+  <si>
+    <t>Em mua máy về và có tải facebook với messenger nhưng cứ 1 ngày lại bị lỗi và khoá tài khoản, như vậy có phải ios bị lỗi không ạ? Mọi ng chỉ e với</t>
+  </si>
+  <si>
+    <t>Máy vừa được giao cho tôi lúc sáng nay, nhưng đến tối thì vô cớ sập nguồn 2 lần, lần 1 kích nguồn thì máy hoạt động lại, lần 2 thì làm thế nào máy vẫn tối om om, rất là bực mình! Tôi nên tới đâu để bảo hành máy vậy tiki?</t>
+  </si>
+  <si>
+    <t>sản phẩm nguyên hộp, nguyên seal, chưa kích hoạt,</t>
+  </si>
+  <si>
+    <t>mình dùng máy được 1 tuần chưa thấy xảy ra lỗi lầm gì</t>
+  </si>
+  <si>
+    <t>tốt , sản phẩm đạt, đúng như quảng cáo, nhân viên giao hàng nhiệt tình</t>
+  </si>
+  <si>
+    <t>Muốn mua thêm cái nữa để dùng</t>
+  </si>
+  <si>
+    <t>Lúc đầu mua thì xài không thấy nóng. Được 1 tháng thì mới lướt fb xfim 1 tiếng đã rất là nóng ?? Không biết phải hàng dựng không nữa</t>
+  </si>
+  <si>
+    <t>Ngày đầu mùa về, sau khi sài còn 10% pin thì đi sạc Sau khi sạc đầy, mình dùng 3 tiếng, trong đó YouTube 1 tiếng, vọc FB 1tieng rưỡi, pin xuống còn 70% , cảm thấy tụt quá nhanh cho pin còn mới</t>
+  </si>
+  <si>
+    <t>Máy đẹp, cấu hình mạnh, chạy trơn tru tất cả các ứng dụng, game, màn hình đẹp, hệ điều hành giao diện đẹp, nhiều chức năng hữu ích, chụp ảnh ổn, thời gian sử dụng pin ok, mở khóa bằng vân tay cực nhạy. Với tầm giá này thì chiếc này quá ngon, không có điểm gì phải phàn nàn cả !</t>
+  </si>
+  <si>
+    <t>Pin xuống nhanh quá , sac đầy 100% lúc 22 giờ , 6 giờ sáng dậy còn 90% pin . Chủ đề mặc định ko đẹp cho lắm .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +205,21 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,10 +242,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,207 +533,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/New_Data.xlsx
+++ b/Data/New_Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Pin xuống nhanh quá , sac đầy 100% lúc 22 giờ , 6 giờ sáng dậy còn 90% pin . Chủ đề mặc định ko đẹp cho lắm .</t>
+  </si>
+  <si>
+    <t>cũng được tạm tạm</t>
+  </si>
+  <si>
+    <t>không có gì để phàn nàn</t>
+  </si>
+  <si>
+    <t>không đáng tiền bỏ ra</t>
+  </si>
+  <si>
+    <t>tiếc khi mua máy này</t>
+  </si>
+  <si>
+    <t>không bao giờ quay lại</t>
+  </si>
+  <si>
+    <t>không biết có đúng như quảng cáo không</t>
+  </si>
+  <si>
+    <t>mới mua, cũng tạm ổn cho đến bây giờ</t>
+  </si>
+  <si>
+    <t>khuyên là không nên mua</t>
   </si>
 </sst>
 </file>
@@ -533,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -801,6 +825,46 @@
         <v>47</v>
       </c>
     </row>
+    <row r="53" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/New_Data.xlsx
+++ b/Data/New_Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
   </si>
@@ -181,30 +181,6 @@
   </si>
   <si>
     <t>Pin xuống nhanh quá , sac đầy 100% lúc 22 giờ , 6 giờ sáng dậy còn 90% pin . Chủ đề mặc định ko đẹp cho lắm .</t>
-  </si>
-  <si>
-    <t>cũng được tạm tạm</t>
-  </si>
-  <si>
-    <t>không có gì để phàn nàn</t>
-  </si>
-  <si>
-    <t>không đáng tiền bỏ ra</t>
-  </si>
-  <si>
-    <t>tiếc khi mua máy này</t>
-  </si>
-  <si>
-    <t>không bao giờ quay lại</t>
-  </si>
-  <si>
-    <t>không biết có đúng như quảng cáo không</t>
-  </si>
-  <si>
-    <t>mới mua, cũng tạm ổn cho đến bây giờ</t>
-  </si>
-  <si>
-    <t>khuyên là không nên mua</t>
   </si>
 </sst>
 </file>
@@ -559,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -826,44 +802,28 @@
       </c>
     </row>
     <row r="53" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
